--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="226">
   <si>
     <t>id|任务id</t>
   </si>
@@ -426,27 +426,6 @@
   <si>
     <t>"prop_3d_fish_frozen",</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_4d_target_yu</t>
-  </si>
-  <si>
-    <t>buyu_5d_target_yu</t>
-  </si>
-  <si>
-    <t>buyu_6d_target_yu</t>
-  </si>
-  <si>
-    <t>buyu_7d_target_yu</t>
-  </si>
-  <si>
-    <t>buyu_8d_target_yu</t>
-  </si>
-  <si>
-    <t>buyu_9d_target_yu</t>
-  </si>
-  <si>
-    <t>buyu_10d_target_yu</t>
   </si>
   <si>
     <r>
@@ -1599,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2614,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="19" t="s">
@@ -2651,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
@@ -2688,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
@@ -2725,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
@@ -2762,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
@@ -2799,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
@@ -2836,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="19" t="s">
@@ -2873,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="19" t="s">
@@ -2910,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="19" t="s">
@@ -2947,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
@@ -2984,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="19" t="s">
@@ -3021,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="19" t="s">
@@ -3058,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="19" t="s">
@@ -3095,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="19" t="s">
@@ -3132,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="19" t="s">
@@ -3169,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="19" t="s">
@@ -3206,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
@@ -3243,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
@@ -3280,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
@@ -3317,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
@@ -3354,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
@@ -3391,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19" t="s">
@@ -3428,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19" t="s">
@@ -3465,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19" t="s">
@@ -3502,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19" t="s">
@@ -3539,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
@@ -3576,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
@@ -3613,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
@@ -3650,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
@@ -3687,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
@@ -3724,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="19" t="s">
@@ -3761,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="19" t="s">
@@ -3798,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>99</v>
@@ -3833,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>99</v>
@@ -3868,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>99</v>
@@ -3903,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>99</v>
@@ -3938,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>99</v>
@@ -3973,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>99</v>
@@ -4008,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>99</v>
@@ -4043,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>113</v>
@@ -4078,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>113</v>
@@ -4113,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>113</v>
@@ -4148,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>113</v>
@@ -4183,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>113</v>
@@ -4218,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>113</v>
@@ -4911,8 +4890,8 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67:H72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5600,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1">
@@ -5624,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1">
@@ -5648,7 +5627,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1">
@@ -5672,7 +5651,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1">
@@ -5696,7 +5675,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1">
@@ -5720,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5744,7 +5723,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1">
@@ -5768,7 +5747,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="27" customFormat="1">
@@ -5792,7 +5771,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="27" customFormat="1">
@@ -5816,7 +5795,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1">
@@ -5840,7 +5819,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1">
@@ -5864,7 +5843,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1">
@@ -5888,7 +5867,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1">
@@ -5912,7 +5891,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1">
@@ -5936,7 +5915,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1">
@@ -5960,7 +5939,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1">
@@ -5984,7 +5963,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1">
@@ -6008,7 +5987,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1">
@@ -6032,7 +6011,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1">
@@ -6056,7 +6035,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1">
@@ -6080,7 +6059,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="27" customFormat="1">
@@ -6104,7 +6083,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="27" customFormat="1">
@@ -6128,7 +6107,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="27" customFormat="1">
@@ -6152,7 +6131,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="27" customFormat="1">
@@ -6176,7 +6155,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="27" customFormat="1">
@@ -6200,7 +6179,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="27" customFormat="1">
@@ -6224,7 +6203,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="27" customFormat="1">
@@ -6248,7 +6227,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="27" customFormat="1">
@@ -6272,7 +6251,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="27" customFormat="1">
@@ -6296,7 +6275,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="16" customFormat="1">
@@ -6311,7 +6290,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6320,7 +6299,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1">
@@ -6335,7 +6314,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6344,7 +6323,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6368,7 +6347,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6392,7 +6371,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6416,7 +6395,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6440,7 +6419,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6464,7 +6443,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6488,7 +6467,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6512,7 +6491,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6536,7 +6515,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6560,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6584,7 +6563,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6608,7 +6587,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6632,7 +6611,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6656,7 +6635,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7118,8 +7097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67:F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7260,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -7277,7 +7256,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -7294,7 +7273,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -7311,7 +7290,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -7328,7 +7307,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -7345,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -7362,7 +7341,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -7485,7 +7464,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D21" s="28">
         <v>18</v>
@@ -7503,7 +7482,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D22" s="28">
         <v>19</v>
@@ -7521,7 +7500,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="D23" s="28">
         <v>20</v>
@@ -7539,7 +7518,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D24" s="28">
         <v>21</v>
@@ -7557,7 +7536,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="D25" s="28">
         <v>22</v>
@@ -7575,14 +7554,14 @@
         <v>25</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D26" s="28">
         <v>23</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7593,7 +7572,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D27" s="28">
         <v>24</v>
@@ -7618,7 +7597,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7636,7 +7615,7 @@
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7654,7 +7633,7 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7672,7 +7651,7 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7690,7 +7669,7 @@
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7708,7 +7687,7 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7726,7 +7705,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7744,7 +7723,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7762,7 +7741,7 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7780,7 +7759,7 @@
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7798,7 +7777,7 @@
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7816,7 +7795,7 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7834,7 +7813,7 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7852,7 +7831,7 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7870,7 +7849,7 @@
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7888,7 +7867,7 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7906,7 +7885,7 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7924,7 +7903,7 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7942,7 +7921,7 @@
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7960,7 +7939,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7978,7 +7957,7 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7996,7 +7975,7 @@
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8014,7 +7993,7 @@
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8032,7 +8011,7 @@
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8050,7 +8029,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8068,7 +8047,7 @@
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8086,7 +8065,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8104,7 +8083,7 @@
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8122,7 +8101,7 @@
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8140,7 +8119,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8158,7 +8137,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8176,7 +8155,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8194,7 +8173,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8212,7 +8191,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8230,7 +8209,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8248,7 +8227,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8266,7 +8245,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8284,7 +8263,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8302,7 +8281,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8320,7 +8299,7 @@
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8338,7 +8317,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8356,7 +8335,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8374,7 +8353,7 @@
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8392,7 +8371,7 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8410,7 +8389,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -8549,7 +8528,7 @@
         <v>122</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8569,7 +8548,7 @@
         <v>122</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -8589,7 +8568,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -8609,7 +8588,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -8629,7 +8608,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -8649,7 +8628,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -8669,13 +8648,13 @@
         <v>122</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8689,7 +8668,7 @@
         <v>122</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8749,7 +8728,7 @@
         <v>122</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E16" s="28">
         <v>2</v>
@@ -8769,7 +8748,7 @@
         <v>122</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
@@ -8789,7 +8768,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -8809,7 +8788,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E19" s="28">
         <v>2</v>
@@ -8829,7 +8808,7 @@
         <v>122</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
@@ -8849,7 +8828,7 @@
         <v>122</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
@@ -8869,7 +8848,7 @@
         <v>122</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E22" s="28">
         <v>2</v>
@@ -8889,7 +8868,7 @@
         <v>122</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E23" s="28">
         <v>2</v>
@@ -8909,13 +8888,13 @@
         <v>122</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8929,7 +8908,7 @@
         <v>122</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
@@ -8966,7 +8945,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8975,7 +8954,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -9006,7 +8985,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D29" s="34">
         <v>500</v>
@@ -9015,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="35" customFormat="1">
@@ -9026,7 +9005,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -9035,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -9049,7 +9028,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E31" s="34">
         <v>2</v>
@@ -9066,7 +9045,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9075,7 +9054,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9089,7 +9068,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E33" s="34">
         <v>2</v>
@@ -9106,7 +9085,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9115,7 +9094,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9129,7 +9108,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E35" s="34">
         <v>3</v>
@@ -9146,7 +9125,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9155,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9169,7 +9148,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E37" s="34">
         <v>3</v>
@@ -9186,7 +9165,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9195,7 +9174,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9209,7 +9188,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E39" s="34">
         <v>2</v>
@@ -9226,7 +9205,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9235,7 +9214,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9249,7 +9228,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E41" s="34">
         <v>2</v>
@@ -9266,7 +9245,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9275,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9289,7 +9268,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
@@ -9306,7 +9285,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9315,7 +9294,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9329,7 +9308,7 @@
         <v>34</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
@@ -9346,7 +9325,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9355,7 +9334,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9369,7 +9348,7 @@
         <v>34</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
@@ -9386,7 +9365,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9395,7 +9374,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="35" customFormat="1">
@@ -9409,13 +9388,13 @@
         <v>34</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E49" s="34">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="35" customFormat="1">
@@ -9426,7 +9405,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D50" s="34">
         <v>500</v>
@@ -9435,7 +9414,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9455,7 +9434,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9466,7 +9445,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D52" s="28">
         <v>1000</v>
@@ -9475,7 +9454,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9495,7 +9474,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9506,7 +9485,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D54" s="28">
         <v>1000</v>
@@ -9515,7 +9494,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9526,7 +9505,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9535,7 +9514,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9549,13 +9528,13 @@
         <v>34</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9566,7 +9545,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9575,7 +9554,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9589,13 +9568,13 @@
         <v>34</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E58" s="28">
         <v>2</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9606,7 +9585,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9615,7 +9594,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9629,13 +9608,13 @@
         <v>34</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9646,7 +9625,7 @@
         <v>43</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9655,7 +9634,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9669,13 +9648,13 @@
         <v>34</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9686,7 +9665,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9695,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9709,13 +9688,13 @@
         <v>34</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9726,7 +9705,7 @@
         <v>45</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9735,7 +9714,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9749,13 +9728,13 @@
         <v>34</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9766,7 +9745,7 @@
         <v>46</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9775,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9789,13 +9768,13 @@
         <v>34</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9806,7 +9785,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9815,7 +9794,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9829,13 +9808,13 @@
         <v>34</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9846,7 +9825,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9855,7 +9834,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9869,13 +9848,13 @@
         <v>34</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E72" s="28">
         <v>2</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9886,7 +9865,7 @@
         <v>49</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D73" s="28">
         <v>1000</v>
@@ -9895,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9909,13 +9888,13 @@
         <v>34</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E74" s="28">
         <v>2</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9926,7 +9905,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D75" s="28">
         <v>1000</v>
@@ -9935,7 +9914,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1">
@@ -9955,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9966,7 +9945,7 @@
         <v>51</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D77" s="37">
         <v>5000</v>
@@ -9975,7 +9954,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1">
@@ -9995,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -10006,7 +9985,7 @@
         <v>52</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D79" s="37">
         <v>5000</v>
@@ -10015,7 +9994,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
@@ -10026,7 +10005,7 @@
         <v>53</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -10035,7 +10014,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -10049,13 +10028,13 @@
         <v>34</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
@@ -10066,7 +10045,7 @@
         <v>54</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10075,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10089,13 +10068,13 @@
         <v>34</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="38" customFormat="1">
@@ -10106,7 +10085,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10115,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10129,13 +10108,13 @@
         <v>34</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="38" customFormat="1">
@@ -10146,7 +10125,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10155,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10169,13 +10148,13 @@
         <v>34</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
@@ -10186,7 +10165,7 @@
         <v>57</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10195,7 +10174,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10209,13 +10188,13 @@
         <v>34</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E89" s="37">
         <v>2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
@@ -10226,7 +10205,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10235,7 +10214,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10249,13 +10228,13 @@
         <v>34</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E91" s="37">
         <v>2</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
@@ -10266,7 +10245,7 @@
         <v>59</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10275,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10289,13 +10268,13 @@
         <v>34</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
@@ -10306,7 +10285,7 @@
         <v>60</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10315,7 +10294,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="38" customFormat="1">
@@ -10329,13 +10308,13 @@
         <v>34</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E95" s="37">
         <v>2</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="38" customFormat="1">
@@ -10346,7 +10325,7 @@
         <v>61</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D96" s="37">
         <v>5000</v>
@@ -10355,7 +10334,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="38" customFormat="1">
@@ -10369,13 +10348,13 @@
         <v>34</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E97" s="37">
         <v>2</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="38" customFormat="1">
@@ -10386,7 +10365,7 @@
         <v>62</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D98" s="37">
         <v>5000</v>
@@ -10395,7 +10374,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="38" customFormat="1">
@@ -10409,13 +10388,13 @@
         <v>34</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E99" s="37">
         <v>2</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="38" customFormat="1">
@@ -10426,7 +10405,7 @@
         <v>63</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D100" s="37">
         <v>5000</v>
@@ -10435,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10455,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10466,7 +10445,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10475,7 +10454,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10489,13 +10468,13 @@
         <v>34</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10506,7 +10485,7 @@
         <v>65</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10515,7 +10494,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10529,13 +10508,13 @@
         <v>34</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E105" s="28">
         <v>2</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10546,7 +10525,7 @@
         <v>66</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D106" s="28">
         <v>10000</v>
@@ -10555,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10569,13 +10548,13 @@
         <v>34</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E107" s="28">
         <v>2</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10586,7 +10565,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D108" s="28">
         <v>10000</v>
@@ -10595,7 +10574,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10606,7 +10585,7 @@
         <v>68</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D109" s="28">
         <v>10000</v>
@@ -10615,7 +10594,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10629,13 +10608,13 @@
         <v>34</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E110" s="28">
         <v>2</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10646,7 +10625,7 @@
         <v>69</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D111" s="28">
         <v>10000</v>
@@ -10655,7 +10634,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -10722,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10777,7 +10756,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10835,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -10893,7 +10872,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
@@ -10952,7 +10931,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="2"/>
@@ -11011,7 +10990,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="2"/>
@@ -11070,7 +11049,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="2"/>
@@ -11129,7 +11108,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="2"/>
@@ -11188,7 +11167,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11604,7 +11583,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D47" s="6">
         <v>5</v>
@@ -11662,7 +11641,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D50" s="6">
         <v>5</v>
@@ -11720,7 +11699,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D53" s="6">
         <v>5</v>
@@ -11778,7 +11757,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D56" s="6">
         <v>5</v>
@@ -11836,7 +11815,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D59" s="6">
         <v>5</v>
@@ -11894,7 +11873,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D62" s="6">
         <v>5</v>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="223">
   <si>
     <t>id|任务id</t>
   </si>
@@ -394,13 +394,6 @@
   </si>
   <si>
     <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_3d_spend</t>
-  </si>
-  <si>
-    <t>buyu_3d_spend</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1000,6 +993,9 @@
   <si>
     <t>use_fish_3d_bullet_item</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1565,7 @@
   <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2583,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="19" t="s">
@@ -2620,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
@@ -2657,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
@@ -2694,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
@@ -2731,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
@@ -2768,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
@@ -2805,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="19" t="s">
@@ -2842,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="19" t="s">
@@ -2879,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="19" t="s">
@@ -2916,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
@@ -2953,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="19" t="s">
@@ -2990,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="19" t="s">
@@ -3027,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="19" t="s">
@@ -3064,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="19" t="s">
@@ -3101,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="19" t="s">
@@ -3138,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="19" t="s">
@@ -3175,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
@@ -3212,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
@@ -3249,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
@@ -3286,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
@@ -3323,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
@@ -3360,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19" t="s">
@@ -3397,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19" t="s">
@@ -3434,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19" t="s">
@@ -3471,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19" t="s">
@@ -3508,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
@@ -3545,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
@@ -3582,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
@@ -3619,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
@@ -3656,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
@@ -3693,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="19" t="s">
@@ -3730,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="19" t="s">
@@ -3767,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>99</v>
@@ -3802,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>99</v>
@@ -3837,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>99</v>
@@ -3872,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>99</v>
@@ -3907,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>99</v>
@@ -3942,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>99</v>
@@ -3977,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>99</v>
@@ -4012,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>113</v>
@@ -4047,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>113</v>
@@ -4082,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>113</v>
@@ -4117,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>113</v>
@@ -4152,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>113</v>
@@ -4187,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>113</v>
@@ -4881,7 +4877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5569,7 +5565,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1">
@@ -5593,7 +5589,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1">
@@ -5617,7 +5613,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1">
@@ -5641,7 +5637,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1">
@@ -5665,7 +5661,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1">
@@ -5689,7 +5685,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5713,7 +5709,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1">
@@ -5737,7 +5733,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="27" customFormat="1">
@@ -5761,7 +5757,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="27" customFormat="1">
@@ -5785,7 +5781,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1">
@@ -5809,7 +5805,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1">
@@ -5833,7 +5829,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1">
@@ -5857,7 +5853,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1">
@@ -5881,7 +5877,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1">
@@ -5905,7 +5901,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1">
@@ -5929,7 +5925,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1">
@@ -5953,7 +5949,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1">
@@ -5977,7 +5973,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1">
@@ -6001,7 +5997,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1">
@@ -6025,7 +6021,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1">
@@ -6049,7 +6045,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="27" customFormat="1">
@@ -6073,7 +6069,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="27" customFormat="1">
@@ -6097,7 +6093,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="27" customFormat="1">
@@ -6121,7 +6117,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="27" customFormat="1">
@@ -6145,7 +6141,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="27" customFormat="1">
@@ -6169,7 +6165,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="27" customFormat="1">
@@ -6193,7 +6189,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="27" customFormat="1">
@@ -6217,7 +6213,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="27" customFormat="1">
@@ -6241,7 +6237,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="27" customFormat="1">
@@ -6265,7 +6261,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="16" customFormat="1">
@@ -6280,7 +6276,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6289,7 +6285,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1">
@@ -6304,7 +6300,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6313,7 +6309,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6337,7 +6333,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6361,7 +6357,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6385,7 +6381,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6409,7 +6405,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6433,7 +6429,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6457,7 +6453,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6481,7 +6477,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6505,7 +6501,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6529,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6553,7 +6549,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6577,7 +6573,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6601,7 +6597,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6625,7 +6621,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7147,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7178,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -7195,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7366,7 +7362,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
@@ -7551,7 +7547,7 @@
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7587,7 +7583,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7598,14 +7594,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7623,7 +7619,7 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7641,7 +7637,7 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7659,7 +7655,7 @@
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7677,7 +7673,7 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7695,7 +7691,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7713,7 +7709,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7727,7 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7749,7 +7745,7 @@
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7767,7 +7763,7 @@
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7785,7 +7781,7 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7803,7 +7799,7 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7821,7 +7817,7 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7832,14 +7828,14 @@
         <v>41</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7857,7 +7853,7 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7875,7 +7871,7 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7893,7 +7889,7 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7911,7 +7907,7 @@
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7929,7 +7925,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7947,7 +7943,7 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7965,7 +7961,7 @@
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7983,7 +7979,7 @@
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8001,7 +7997,7 @@
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8019,7 +8015,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8037,7 +8033,7 @@
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8055,7 +8051,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8066,14 +8062,14 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8091,7 +8087,7 @@
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8109,7 +8105,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8127,7 +8123,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8145,7 +8141,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8163,7 +8159,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8181,7 +8177,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8199,7 +8195,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8217,7 +8213,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8235,7 +8231,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8253,7 +8249,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8271,7 +8267,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8289,7 +8285,7 @@
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8307,7 +8303,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8325,7 +8321,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8343,7 +8339,7 @@
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8361,7 +8357,7 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8379,7 +8375,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -8455,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>116</v>
@@ -8478,7 +8474,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8498,7 +8494,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -8515,10 +8511,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8535,10 +8531,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -8555,10 +8551,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -8575,10 +8571,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -8595,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -8615,10 +8611,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -8635,16 +8631,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8655,10 +8651,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8695,7 +8691,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>116</v>
@@ -8715,10 +8711,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E16" s="28">
         <v>2</v>
@@ -8735,10 +8731,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
@@ -8755,10 +8751,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -8775,10 +8771,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" s="28">
         <v>2</v>
@@ -8795,10 +8791,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
@@ -8815,10 +8811,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
@@ -8835,10 +8831,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22" s="28">
         <v>2</v>
@@ -8855,10 +8851,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="28">
         <v>2</v>
@@ -8875,16 +8871,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8895,10 +8891,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
@@ -8935,7 +8931,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8944,7 +8940,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -8975,7 +8971,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D29" s="34">
         <v>500</v>
@@ -8984,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="35" customFormat="1">
@@ -8995,7 +8991,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -9004,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -9018,7 +9014,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="34">
         <v>2</v>
@@ -9035,7 +9031,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9044,7 +9040,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9058,7 +9054,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E33" s="34">
         <v>2</v>
@@ -9075,7 +9071,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9084,7 +9080,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9098,7 +9094,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="34">
         <v>3</v>
@@ -9115,7 +9111,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9124,7 +9120,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9138,7 +9134,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37" s="34">
         <v>3</v>
@@ -9155,7 +9151,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9164,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9178,7 +9174,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E39" s="34">
         <v>2</v>
@@ -9195,7 +9191,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9204,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9218,7 +9214,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E41" s="34">
         <v>2</v>
@@ -9235,7 +9231,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9244,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9258,7 +9254,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
@@ -9275,7 +9271,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9284,7 +9280,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9298,7 +9294,7 @@
         <v>34</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
@@ -9315,7 +9311,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9324,7 +9320,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9338,7 +9334,7 @@
         <v>34</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
@@ -9355,7 +9351,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9364,7 +9360,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="35" customFormat="1">
@@ -9378,13 +9374,13 @@
         <v>34</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E49" s="34">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="35" customFormat="1">
@@ -9395,7 +9391,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D50" s="34">
         <v>500</v>
@@ -9404,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9424,7 +9420,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9435,7 +9431,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D52" s="28">
         <v>1000</v>
@@ -9444,7 +9440,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9464,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9475,7 +9471,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D54" s="28">
         <v>1000</v>
@@ -9484,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9495,7 +9491,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9504,7 +9500,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9518,13 +9514,13 @@
         <v>34</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9535,7 +9531,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9544,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9558,13 +9554,13 @@
         <v>34</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E58" s="28">
         <v>2</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9575,7 +9571,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9584,7 +9580,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9598,13 +9594,13 @@
         <v>34</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9615,7 +9611,7 @@
         <v>43</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9624,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9638,13 +9634,13 @@
         <v>34</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9655,7 +9651,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9664,7 +9660,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9678,13 +9674,13 @@
         <v>34</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9695,7 +9691,7 @@
         <v>45</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9704,7 +9700,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9718,13 +9714,13 @@
         <v>34</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9735,7 +9731,7 @@
         <v>46</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9744,7 +9740,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9758,13 +9754,13 @@
         <v>34</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9775,7 +9771,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9784,7 +9780,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9798,13 +9794,13 @@
         <v>34</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9815,7 +9811,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9824,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9838,13 +9834,13 @@
         <v>34</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E72" s="28">
         <v>2</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9855,7 +9851,7 @@
         <v>49</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D73" s="28">
         <v>1000</v>
@@ -9864,7 +9860,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9878,13 +9874,13 @@
         <v>34</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E74" s="28">
         <v>2</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9895,7 +9891,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75" s="28">
         <v>1000</v>
@@ -9904,7 +9900,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1">
@@ -9924,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9935,7 +9931,7 @@
         <v>51</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D77" s="37">
         <v>5000</v>
@@ -9944,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1">
@@ -9964,7 +9960,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -9975,7 +9971,7 @@
         <v>52</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D79" s="37">
         <v>5000</v>
@@ -9984,7 +9980,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
@@ -9995,7 +9991,7 @@
         <v>53</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -10004,7 +10000,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -10018,13 +10014,13 @@
         <v>34</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
@@ -10035,7 +10031,7 @@
         <v>54</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10044,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10058,13 +10054,13 @@
         <v>34</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="38" customFormat="1">
@@ -10075,7 +10071,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10084,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10098,13 +10094,13 @@
         <v>34</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="38" customFormat="1">
@@ -10115,7 +10111,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10124,7 +10120,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10138,13 +10134,13 @@
         <v>34</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
@@ -10155,7 +10151,7 @@
         <v>57</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10164,7 +10160,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10178,13 +10174,13 @@
         <v>34</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E89" s="37">
         <v>2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
@@ -10195,7 +10191,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10204,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10218,13 +10214,13 @@
         <v>34</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E91" s="37">
         <v>2</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
@@ -10235,7 +10231,7 @@
         <v>59</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10244,7 +10240,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10258,13 +10254,13 @@
         <v>34</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
@@ -10275,7 +10271,7 @@
         <v>60</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10284,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="38" customFormat="1">
@@ -10298,13 +10294,13 @@
         <v>34</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E95" s="37">
         <v>2</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="38" customFormat="1">
@@ -10315,7 +10311,7 @@
         <v>61</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D96" s="37">
         <v>5000</v>
@@ -10324,7 +10320,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="38" customFormat="1">
@@ -10338,13 +10334,13 @@
         <v>34</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E97" s="37">
         <v>2</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="38" customFormat="1">
@@ -10355,7 +10351,7 @@
         <v>62</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D98" s="37">
         <v>5000</v>
@@ -10364,7 +10360,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="38" customFormat="1">
@@ -10378,13 +10374,13 @@
         <v>34</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E99" s="37">
         <v>2</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="38" customFormat="1">
@@ -10395,7 +10391,7 @@
         <v>63</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D100" s="37">
         <v>5000</v>
@@ -10404,7 +10400,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10424,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10435,7 +10431,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10444,7 +10440,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10458,13 +10454,13 @@
         <v>34</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10475,7 +10471,7 @@
         <v>65</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10484,7 +10480,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10498,13 +10494,13 @@
         <v>34</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E105" s="28">
         <v>2</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10515,7 +10511,7 @@
         <v>66</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D106" s="28">
         <v>10000</v>
@@ -10524,7 +10520,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10538,13 +10534,13 @@
         <v>34</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E107" s="28">
         <v>2</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10555,7 +10551,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D108" s="28">
         <v>10000</v>
@@ -10564,7 +10560,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10575,7 +10571,7 @@
         <v>68</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D109" s="28">
         <v>10000</v>
@@ -10584,7 +10580,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10598,13 +10594,13 @@
         <v>34</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E110" s="28">
         <v>2</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10615,7 +10611,7 @@
         <v>69</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D111" s="28">
         <v>10000</v>
@@ -10624,7 +10620,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -10691,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10746,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10804,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10862,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10920,7 +10916,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10978,7 +10974,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -11036,7 +11032,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -11094,7 +11090,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -11152,7 +11148,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11568,7 +11564,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11626,7 +11622,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11684,7 +11680,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11742,7 +11738,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11800,7 +11796,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11858,7 +11854,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="222">
   <si>
     <t>id|任务id</t>
   </si>
@@ -652,23 +652,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>3,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7,</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2579,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="19" t="s">
@@ -2616,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
@@ -2653,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
@@ -2690,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
@@ -2727,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
@@ -2764,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
@@ -2801,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="19" t="s">
@@ -2838,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="19" t="s">
@@ -2875,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="19" t="s">
@@ -2912,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
@@ -2949,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="19" t="s">
@@ -2986,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="19" t="s">
@@ -3023,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="19" t="s">
@@ -3060,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="19" t="s">
@@ -3097,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="19" t="s">
@@ -3134,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="19" t="s">
@@ -3171,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
@@ -3208,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
@@ -3245,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
@@ -3282,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
@@ -3319,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
@@ -3356,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19" t="s">
@@ -3393,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19" t="s">
@@ -3430,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19" t="s">
@@ -3467,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19" t="s">
@@ -3504,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
@@ -3541,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
@@ -3578,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
@@ -3615,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
@@ -3652,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
@@ -3689,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="19" t="s">
@@ -3726,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="19" t="s">
@@ -3763,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>99</v>
@@ -3798,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>99</v>
@@ -3833,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>99</v>
@@ -3868,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>99</v>
@@ -3903,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>99</v>
@@ -3938,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>99</v>
@@ -3973,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>99</v>
@@ -4008,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>113</v>
@@ -4043,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>113</v>
@@ -4078,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>113</v>
@@ -4113,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>113</v>
@@ -4148,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>113</v>
@@ -4183,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>113</v>
@@ -5565,7 +5548,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1">
@@ -5589,7 +5572,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1">
@@ -5613,7 +5596,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1">
@@ -5637,7 +5620,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1">
@@ -5661,7 +5644,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1">
@@ -5685,7 +5668,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5709,7 +5692,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1">
@@ -5733,7 +5716,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="27" customFormat="1">
@@ -5757,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="27" customFormat="1">
@@ -5781,7 +5764,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1">
@@ -5805,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1">
@@ -5829,7 +5812,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1">
@@ -5853,7 +5836,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1">
@@ -5877,7 +5860,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1">
@@ -5901,7 +5884,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1">
@@ -5925,7 +5908,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1">
@@ -5949,7 +5932,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1">
@@ -5973,7 +5956,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1">
@@ -5997,7 +5980,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1">
@@ -6021,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1">
@@ -6045,7 +6028,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="27" customFormat="1">
@@ -6069,7 +6052,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="27" customFormat="1">
@@ -6093,7 +6076,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="27" customFormat="1">
@@ -6117,7 +6100,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="27" customFormat="1">
@@ -6141,7 +6124,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="27" customFormat="1">
@@ -6165,7 +6148,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="27" customFormat="1">
@@ -6189,7 +6172,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="27" customFormat="1">
@@ -6213,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="27" customFormat="1">
@@ -6237,7 +6220,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="27" customFormat="1">
@@ -6261,7 +6244,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="16" customFormat="1">
@@ -6276,7 +6259,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6285,7 +6268,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1">
@@ -6300,7 +6283,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6309,7 +6292,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6333,7 +6316,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6357,7 +6340,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6381,7 +6364,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6405,7 +6388,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6429,7 +6412,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6453,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6477,7 +6460,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6501,7 +6484,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6525,7 +6508,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6549,7 +6532,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6573,7 +6556,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6597,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6621,7 +6604,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7083,8 +7066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="A38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7143,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7174,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -7191,7 +7174,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7362,7 +7345,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
@@ -7583,7 +7566,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7594,14 +7577,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7619,7 +7602,7 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7637,7 +7620,7 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7655,7 +7638,7 @@
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7673,7 +7656,7 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7674,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7709,7 +7692,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7727,7 +7710,7 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7745,7 +7728,7 @@
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7763,7 +7746,7 @@
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7781,7 +7764,7 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7799,7 +7782,7 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7817,7 +7800,7 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7828,14 +7811,14 @@
         <v>41</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7853,7 +7836,7 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7871,7 +7854,7 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7889,7 +7872,7 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7907,7 +7890,7 @@
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7925,7 +7908,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7943,7 +7926,7 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7961,7 +7944,7 @@
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7979,7 +7962,7 @@
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7997,7 +7980,7 @@
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8015,7 +7998,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8033,7 +8016,7 @@
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8051,7 +8034,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8062,14 +8045,14 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8087,7 +8070,7 @@
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8105,7 +8088,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8123,7 +8106,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8141,7 +8124,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8159,7 +8142,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8177,7 +8160,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8195,7 +8178,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8213,7 +8196,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8231,7 +8214,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8249,7 +8232,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8267,7 +8250,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8285,7 +8268,7 @@
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8303,7 +8286,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8321,7 +8304,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8339,7 +8322,7 @@
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8357,7 +8340,7 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8375,7 +8358,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8389,8 +8372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8931,7 +8914,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8940,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -8971,7 +8954,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="34">
         <v>500</v>
@@ -8980,7 +8963,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="35" customFormat="1">
@@ -8991,7 +8974,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -9000,7 +8983,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -9031,7 +9014,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9040,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9071,7 +9054,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9080,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9111,7 +9094,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9120,7 +9103,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9151,7 +9134,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9160,7 +9143,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9191,7 +9174,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9200,7 +9183,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9231,7 +9214,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9240,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9271,7 +9254,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9280,7 +9263,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9294,7 +9277,7 @@
         <v>34</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
@@ -9311,7 +9294,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9320,7 +9303,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9351,7 +9334,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9360,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="35" customFormat="1">
@@ -9374,13 +9357,13 @@
         <v>34</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="34">
         <v>2</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="35" customFormat="1">
@@ -9391,7 +9374,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D50" s="34">
         <v>500</v>
@@ -9400,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9420,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9431,7 +9414,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="28">
         <v>1000</v>
@@ -9440,7 +9423,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9460,7 +9443,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9471,7 +9454,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54" s="28">
         <v>1000</v>
@@ -9480,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9491,7 +9474,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9500,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9514,13 +9497,13 @@
         <v>34</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9531,7 +9514,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9540,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9554,13 +9537,13 @@
         <v>34</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" s="28">
         <v>2</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9571,7 +9554,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9580,7 +9563,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9594,13 +9577,13 @@
         <v>34</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9611,7 +9594,7 @@
         <v>43</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9620,7 +9603,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9634,13 +9617,13 @@
         <v>34</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9651,7 +9634,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9660,7 +9643,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9674,13 +9657,13 @@
         <v>34</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9691,7 +9674,7 @@
         <v>45</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9700,7 +9683,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9714,13 +9697,13 @@
         <v>34</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9731,7 +9714,7 @@
         <v>46</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9740,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9754,13 +9737,13 @@
         <v>34</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9771,7 +9754,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9780,7 +9763,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9794,13 +9777,13 @@
         <v>34</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9811,7 +9794,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9820,7 +9803,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9840,7 +9823,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9851,7 +9834,7 @@
         <v>49</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="28">
         <v>1000</v>
@@ -9860,7 +9843,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9880,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9891,7 +9874,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D75" s="28">
         <v>1000</v>
@@ -9900,7 +9883,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1">
@@ -9920,7 +9903,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9931,7 +9914,7 @@
         <v>51</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" s="37">
         <v>5000</v>
@@ -9940,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1">
@@ -9960,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -9971,7 +9954,7 @@
         <v>52</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" s="37">
         <v>5000</v>
@@ -9980,7 +9963,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
@@ -9991,7 +9974,7 @@
         <v>53</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -10000,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -10014,13 +9997,13 @@
         <v>34</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
@@ -10031,7 +10014,7 @@
         <v>54</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10040,7 +10023,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10054,13 +10037,13 @@
         <v>34</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="38" customFormat="1">
@@ -10071,7 +10054,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10080,7 +10063,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10094,13 +10077,13 @@
         <v>34</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="38" customFormat="1">
@@ -10111,7 +10094,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10120,7 +10103,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10134,13 +10117,13 @@
         <v>34</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
@@ -10151,7 +10134,7 @@
         <v>57</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10160,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10174,13 +10157,13 @@
         <v>34</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E89" s="37">
         <v>2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
@@ -10191,7 +10174,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10200,7 +10183,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10214,13 +10197,13 @@
         <v>34</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" s="37">
         <v>2</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
@@ -10231,7 +10214,7 @@
         <v>59</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10240,7 +10223,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10254,13 +10237,13 @@
         <v>34</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
@@ -10271,7 +10254,7 @@
         <v>60</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10280,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="38" customFormat="1">
@@ -10294,13 +10277,13 @@
         <v>34</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="37">
         <v>2</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="38" customFormat="1">
@@ -10311,7 +10294,7 @@
         <v>61</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D96" s="37">
         <v>5000</v>
@@ -10320,7 +10303,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="38" customFormat="1">
@@ -10340,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="38" customFormat="1">
@@ -10351,7 +10334,7 @@
         <v>62</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D98" s="37">
         <v>5000</v>
@@ -10360,7 +10343,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="38" customFormat="1">
@@ -10380,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="38" customFormat="1">
@@ -10391,7 +10374,7 @@
         <v>63</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D100" s="37">
         <v>5000</v>
@@ -10400,7 +10383,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10420,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10431,7 +10414,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10440,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10454,13 +10437,13 @@
         <v>34</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10471,7 +10454,7 @@
         <v>65</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10480,7 +10463,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10494,13 +10477,13 @@
         <v>34</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E105" s="28">
         <v>2</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10511,7 +10494,7 @@
         <v>66</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D106" s="28">
         <v>10000</v>
@@ -10520,7 +10503,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10534,13 +10517,13 @@
         <v>34</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E107" s="28">
         <v>2</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10551,7 +10534,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D108" s="28">
         <v>10000</v>
@@ -10560,7 +10543,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10571,7 +10554,7 @@
         <v>68</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" s="28">
         <v>10000</v>
@@ -10580,7 +10563,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10600,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10611,7 +10594,7 @@
         <v>69</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" s="28">
         <v>10000</v>
@@ -10620,7 +10603,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -10687,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10742,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10800,7 +10783,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10858,7 +10841,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10916,7 +10899,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10974,7 +10957,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -11032,7 +11015,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -11090,7 +11073,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -11148,7 +11131,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11564,7 +11547,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11622,7 +11605,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11680,7 +11663,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11738,7 +11721,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11796,7 +11779,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11854,7 +11837,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="217">
   <si>
     <t>id|任务id</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>fish_prop</t>
-  </si>
-  <si>
-    <t>fish_game_id</t>
   </si>
   <si>
     <t>base_fish_id</t>
@@ -299,9 +296,6 @@
     <t>捕获黄金鱼10条</t>
   </si>
   <si>
-    <t>捕鱼获得金币300万</t>
-  </si>
-  <si>
     <t>捕获狮子鱼20条</t>
   </si>
   <si>
@@ -380,17 +374,11 @@
     <t>捕获任意黄金鱼8条</t>
   </si>
   <si>
-    <t>累计开炮数2000发</t>
-  </si>
-  <si>
     <t>ocean_explore_week_children_task</t>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
   </si>
   <si>
     <t>2,3,4,5</t>
@@ -917,10 +905,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>17,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -949,10 +933,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20,22,23,24,25,26,27,</t>
   </si>
   <si>
@@ -979,6 +959,10 @@
   </si>
   <si>
     <t>buyu_3d_spend_num</t>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1582,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
@@ -1623,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>12</v>
@@ -1635,7 +1619,7 @@
         <v>15001</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2" s="19">
         <v>1</v>
@@ -1661,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>12</v>
@@ -1673,7 +1657,7 @@
         <v>15002</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="19">
         <v>1</v>
@@ -1696,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>12</v>
@@ -1708,7 +1692,7 @@
         <v>15003</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
@@ -1731,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>12</v>
@@ -1743,7 +1727,7 @@
         <v>15004</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="19">
         <v>1</v>
@@ -1766,10 +1750,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>12</v>
@@ -1778,7 +1762,7 @@
         <v>15005</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
@@ -1801,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>12</v>
@@ -1813,7 +1797,7 @@
         <v>15006</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -1836,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>12</v>
@@ -1848,7 +1832,7 @@
         <v>15007</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="19">
         <v>1</v>
@@ -1871,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>12</v>
@@ -1883,7 +1867,7 @@
         <v>15008</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
@@ -1906,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>12</v>
@@ -1918,7 +1902,7 @@
         <v>15009</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" s="19">
         <v>1</v>
@@ -1941,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>12</v>
@@ -1953,7 +1937,7 @@
         <v>15010</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11" s="19">
         <v>1</v>
@@ -1976,19 +1960,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="19">
         <v>15011</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="19">
         <v>1</v>
@@ -2011,19 +1995,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="19">
         <v>15012</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="19">
         <v>1</v>
@@ -2046,19 +2030,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="19">
         <v>15013</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14" s="19">
         <v>1</v>
@@ -2081,20 +2065,20 @@
         <v>1</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="19">
         <v>15014</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="18">
         <v>1</v>
@@ -2118,20 +2102,20 @@
         <v>1</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="19">
         <v>15015</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" s="18">
         <v>1</v>
@@ -2155,20 +2139,20 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="19">
         <v>15016</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I17" s="18">
         <v>1</v>
@@ -2192,20 +2176,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="19">
         <v>15017</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="18">
         <v>1</v>
@@ -2229,20 +2213,20 @@
         <v>1</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19" s="19">
         <v>15018</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" s="18">
         <v>1</v>
@@ -2266,20 +2250,20 @@
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="19">
         <v>15019</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" s="18">
         <v>1</v>
@@ -2303,20 +2287,20 @@
         <v>1</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="19">
         <v>15020</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21" s="18">
         <v>1</v>
@@ -2340,20 +2324,20 @@
         <v>1</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="19">
         <v>15021</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I22" s="18">
         <v>1</v>
@@ -2377,20 +2361,20 @@
         <v>1</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" s="19">
         <v>15022</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23" s="18">
         <v>1</v>
@@ -2414,20 +2398,20 @@
         <v>1</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="19">
         <v>15023</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" s="18">
         <v>1</v>
@@ -2451,20 +2435,20 @@
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G25" s="19">
         <v>15024</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25" s="18">
         <v>1</v>
@@ -2488,20 +2472,20 @@
         <v>1</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26" s="19">
         <v>15025</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I26" s="18">
         <v>1</v>
@@ -2525,20 +2509,20 @@
         <v>1</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="19">
         <v>15026</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" s="18">
         <v>1</v>
@@ -2562,20 +2546,20 @@
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="19">
         <v>15027</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I28" s="19">
         <v>1</v>
@@ -2599,20 +2583,20 @@
         <v>1</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="19">
         <v>15028</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29" s="19">
         <v>1</v>
@@ -2636,20 +2620,20 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19">
         <v>15029</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" s="19">
         <v>1</v>
@@ -2673,20 +2657,20 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="19">
         <v>15030</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="19">
         <v>1</v>
@@ -2710,20 +2694,20 @@
         <v>1</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="19">
         <v>15031</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="19">
         <v>1</v>
@@ -2747,20 +2731,20 @@
         <v>1</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="19">
         <v>15032</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I33" s="19">
         <v>1</v>
@@ -2784,20 +2768,20 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="19">
         <v>15033</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I34" s="19">
         <v>1</v>
@@ -2821,20 +2805,20 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="19">
         <v>15034</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I35" s="19">
         <v>1</v>
@@ -2858,20 +2842,20 @@
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="19">
         <v>15035</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I36" s="19">
         <v>1</v>
@@ -2895,20 +2879,20 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="19">
         <v>15036</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I37" s="19">
         <v>1</v>
@@ -2932,20 +2916,20 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="19">
         <v>15037</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I38" s="19">
         <v>1</v>
@@ -2969,20 +2953,20 @@
         <v>1</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="19">
         <v>15038</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I39" s="19">
         <v>1</v>
@@ -3006,20 +2990,20 @@
         <v>1</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="19">
         <v>15039</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I40" s="19">
         <v>1</v>
@@ -3043,20 +3027,20 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="19">
         <v>15040</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I41" s="18">
         <v>1</v>
@@ -3080,20 +3064,20 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="19">
         <v>15041</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I42" s="18">
         <v>1</v>
@@ -3117,20 +3101,20 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="19">
         <v>15042</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I43" s="18">
         <v>1</v>
@@ -3154,20 +3138,20 @@
         <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="19">
         <v>15043</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I44" s="18">
         <v>1</v>
@@ -3191,20 +3175,20 @@
         <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="19">
         <v>15044</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I45" s="18">
         <v>1</v>
@@ -3228,20 +3212,20 @@
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="19">
         <v>15045</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I46" s="18">
         <v>1</v>
@@ -3265,20 +3249,20 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="19">
         <v>15046</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I47" s="18">
         <v>1</v>
@@ -3302,20 +3286,20 @@
         <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="19">
         <v>15047</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I48" s="18">
         <v>1</v>
@@ -3339,20 +3323,20 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="19">
         <v>15048</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I49" s="18">
         <v>1</v>
@@ -3376,20 +3360,20 @@
         <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="19">
         <v>15049</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I50" s="18">
         <v>1</v>
@@ -3413,20 +3397,20 @@
         <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="19">
         <v>15050</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I51" s="18">
         <v>1</v>
@@ -3450,20 +3434,20 @@
         <v>1</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="19">
         <v>15051</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I52" s="18">
         <v>1</v>
@@ -3487,20 +3471,20 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="19">
         <v>15052</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I53" s="18">
         <v>1</v>
@@ -3524,20 +3508,20 @@
         <v>1</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="19">
         <v>15053</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I54" s="19">
         <v>1</v>
@@ -3561,20 +3545,20 @@
         <v>1</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="19">
         <v>15054</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I55" s="19">
         <v>1</v>
@@ -3598,20 +3582,20 @@
         <v>1</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="19">
         <v>15055</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I56" s="19">
         <v>1</v>
@@ -3635,20 +3619,20 @@
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="19">
         <v>15056</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I57" s="19">
         <v>1</v>
@@ -3672,20 +3656,20 @@
         <v>1</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="19">
         <v>15057</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I58" s="19">
         <v>1</v>
@@ -3709,20 +3693,20 @@
         <v>1</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="19">
         <v>15058</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I59" s="19">
         <v>1</v>
@@ -3746,19 +3730,19 @@
         <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="19">
         <v>15059</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I60" s="25">
         <v>1</v>
@@ -3781,19 +3765,19 @@
         <v>1</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="19">
         <v>15060</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I61" s="25">
         <v>1</v>
@@ -3816,19 +3800,19 @@
         <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="19">
         <v>15061</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I62" s="25">
         <v>1</v>
@@ -3851,19 +3835,19 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="19">
         <v>15062</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I63" s="25">
         <v>1</v>
@@ -3886,19 +3870,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="19">
         <v>15063</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I64" s="25">
         <v>1</v>
@@ -3921,19 +3905,19 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="19">
         <v>15064</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I65" s="25">
         <v>1</v>
@@ -3956,19 +3940,19 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="19">
         <v>15065</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I66" s="25">
         <v>1</v>
@@ -3991,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>12</v>
@@ -4003,7 +3987,7 @@
         <v>15066</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I67" s="21">
         <v>1</v>
@@ -4026,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>12</v>
@@ -4038,7 +4022,7 @@
         <v>15067</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I68" s="21">
         <v>1</v>
@@ -4061,10 +4045,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>12</v>
@@ -4073,7 +4057,7 @@
         <v>15068</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I69" s="21">
         <v>1</v>
@@ -4096,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>12</v>
@@ -4108,7 +4092,7 @@
         <v>15069</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I70" s="21">
         <v>1</v>
@@ -4131,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>12</v>
@@ -4143,7 +4127,7 @@
         <v>15070</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I71" s="21">
         <v>1</v>
@@ -4166,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>12</v>
@@ -4178,7 +4162,7 @@
         <v>15071</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I72" s="21">
         <v>1</v>
@@ -4884,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>15</v>
@@ -4899,7 +4883,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -4924,7 +4908,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1">
@@ -4948,7 +4932,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1">
@@ -4972,7 +4956,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1">
@@ -4996,7 +4980,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1">
@@ -5020,7 +5004,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1">
@@ -5044,7 +5028,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1">
@@ -5068,7 +5052,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1">
@@ -5092,7 +5076,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1">
@@ -5116,7 +5100,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1">
@@ -5140,7 +5124,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1">
@@ -5164,7 +5148,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1">
@@ -5188,7 +5172,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1">
@@ -5212,7 +5196,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1">
@@ -5236,7 +5220,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1">
@@ -5260,7 +5244,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1">
@@ -5284,7 +5268,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1">
@@ -5308,7 +5292,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1">
@@ -5332,7 +5316,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1">
@@ -5356,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1">
@@ -5380,7 +5364,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1">
@@ -5404,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1">
@@ -5428,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1">
@@ -5452,7 +5436,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="27" customFormat="1">
@@ -5476,7 +5460,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="27" customFormat="1">
@@ -5500,7 +5484,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="27" customFormat="1">
@@ -5524,7 +5508,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="27" customFormat="1">
@@ -5548,7 +5532,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1">
@@ -5572,7 +5556,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1">
@@ -5596,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1">
@@ -5620,7 +5604,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1">
@@ -5644,7 +5628,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1">
@@ -5668,7 +5652,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5692,7 +5676,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1">
@@ -5716,7 +5700,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="27" customFormat="1">
@@ -5740,7 +5724,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="27" customFormat="1">
@@ -5764,7 +5748,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1">
@@ -5788,7 +5772,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1">
@@ -5812,7 +5796,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1">
@@ -5836,7 +5820,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1">
@@ -5860,7 +5844,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1">
@@ -5884,7 +5868,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1">
@@ -5908,7 +5892,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1">
@@ -5932,7 +5916,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1">
@@ -5956,7 +5940,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1">
@@ -5980,7 +5964,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1">
@@ -6004,7 +5988,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1">
@@ -6028,7 +6012,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="27" customFormat="1">
@@ -6052,7 +6036,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="27" customFormat="1">
@@ -6076,7 +6060,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="27" customFormat="1">
@@ -6100,7 +6084,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="27" customFormat="1">
@@ -6124,7 +6108,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="27" customFormat="1">
@@ -6148,7 +6132,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="27" customFormat="1">
@@ -6172,7 +6156,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="27" customFormat="1">
@@ -6196,7 +6180,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="27" customFormat="1">
@@ -6220,7 +6204,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="27" customFormat="1">
@@ -6244,7 +6228,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="16" customFormat="1">
@@ -6259,7 +6243,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6268,7 +6252,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1">
@@ -6283,7 +6267,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6292,7 +6276,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6316,7 +6300,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6340,7 +6324,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6364,7 +6348,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6388,7 +6372,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6412,7 +6396,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6436,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6460,7 +6444,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6484,7 +6468,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6508,7 +6492,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6532,7 +6516,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6556,7 +6540,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6580,7 +6564,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6604,7 +6588,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7067,7 +7051,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="A38:F38"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7089,13 +7073,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7109,13 +7093,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7126,13 +7110,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7143,10 +7127,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7157,13 +7141,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7174,13 +7158,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7191,13 +7175,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7208,13 +7192,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7225,13 +7209,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7242,13 +7226,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7259,13 +7243,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7276,13 +7260,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7293,13 +7277,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7310,13 +7294,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7334,7 +7318,7 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7345,14 +7329,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7368,7 +7352,7 @@
       <c r="D17" s="28"/>
       <c r="E17" s="32"/>
       <c r="F17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7386,7 +7370,7 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7404,7 +7388,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7422,7 +7406,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7440,7 +7424,7 @@
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7458,7 +7442,7 @@
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7476,7 +7460,7 @@
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7494,7 +7478,7 @@
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7512,7 +7496,7 @@
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7530,7 +7514,7 @@
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7548,7 +7532,7 @@
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7566,7 +7550,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7577,14 +7561,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7602,7 +7586,7 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7620,7 +7604,7 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7638,7 +7622,7 @@
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7656,7 +7640,7 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7674,7 +7658,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7692,7 +7676,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7710,7 +7694,7 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7728,7 +7712,7 @@
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7746,7 +7730,7 @@
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7764,7 +7748,7 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7782,7 +7766,7 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7800,7 +7784,7 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7811,14 +7795,14 @@
         <v>41</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7836,7 +7820,7 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7854,7 +7838,7 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7872,7 +7856,7 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7890,7 +7874,7 @@
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7908,7 +7892,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7926,7 +7910,7 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7944,7 +7928,7 @@
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7962,7 +7946,7 @@
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7980,7 +7964,7 @@
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7998,7 +7982,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8016,7 +8000,7 @@
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8034,7 +8018,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8045,14 +8029,14 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8070,7 +8054,7 @@
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8088,7 +8072,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8106,7 +8090,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8124,7 +8108,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8142,7 +8126,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8160,7 +8144,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8178,7 +8162,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8196,7 +8180,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8214,7 +8198,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8232,7 +8216,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8250,7 +8234,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8268,7 +8252,7 @@
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8286,7 +8270,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8304,7 +8288,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8322,7 +8306,7 @@
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8340,7 +8324,7 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8358,7 +8342,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8370,10 +8354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8417,13 +8401,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8434,16 +8418,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8457,13 +8441,13 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8477,13 +8461,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8494,16 +8478,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8514,16 +8498,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8534,16 +8518,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8554,16 +8538,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8574,16 +8558,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8594,16 +8578,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8614,16 +8598,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8634,16 +8618,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8657,13 +8641,13 @@
         <v>31</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E14" s="28">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8674,16 +8658,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8694,16 +8678,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E16" s="28">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8714,16 +8698,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8734,16 +8718,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8754,16 +8738,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E19" s="28">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8774,16 +8758,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8794,16 +8778,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8814,16 +8798,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E22" s="28">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8834,16 +8818,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E23" s="28">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8854,16 +8838,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8874,16 +8858,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="35" customFormat="1">
@@ -8894,16 +8878,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D26" s="34">
+        <v>500</v>
       </c>
       <c r="E26" s="34">
-        <v>2</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="35" customFormat="1">
@@ -8911,10 +8895,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8923,7 +8907,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -8931,19 +8915,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D28" s="34">
+        <v>500</v>
       </c>
       <c r="E28" s="34">
-        <v>2</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="35" customFormat="1">
@@ -8951,19 +8935,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="34">
-        <v>500</v>
+        <v>33</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="E29" s="34">
-        <v>3</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="35" customFormat="1">
@@ -8971,10 +8955,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -8983,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -8991,19 +8975,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E31" s="34">
         <v>2</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="35" customFormat="1">
@@ -9011,10 +8995,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9023,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9031,19 +9015,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E33" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="35" customFormat="1">
@@ -9051,10 +9035,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9063,7 +9047,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9071,19 +9055,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E35" s="34">
         <v>3</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="35" customFormat="1">
@@ -9091,10 +9075,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9103,7 +9087,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9111,19 +9095,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E37" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="35" customFormat="1">
@@ -9131,10 +9115,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9143,7 +9127,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9151,19 +9135,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" s="34">
         <v>2</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="35" customFormat="1">
@@ -9171,10 +9155,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9183,7 +9167,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9191,13 +9175,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="34">
+        <v>34</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>34</v>
-      </c>
       <c r="D41" s="39" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E41" s="34">
         <v>2</v>
@@ -9211,10 +9195,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9223,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9231,19 +9215,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="35" customFormat="1">
@@ -9251,10 +9235,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9263,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9271,19 +9255,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>214</v>
+        <v>33</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="35" customFormat="1">
@@ -9291,10 +9275,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9303,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9311,19 +9295,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>127</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>95</v>
+      <c r="F47" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="35" customFormat="1">
@@ -9331,10 +9315,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9343,47 +9327,47 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="35" customFormat="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="34">
-        <v>37</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49" s="34">
-        <v>2</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="35" customFormat="1">
+      <c r="B49" s="28">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="28">
+        <v>3</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="34">
-        <v>37</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="34">
-        <v>500</v>
-      </c>
-      <c r="E50" s="34">
+      <c r="B50" s="28">
+        <v>39</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="28">
         <v>3</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>192</v>
+      <c r="F50" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9391,19 +9375,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D51" s="28">
+        <v>1000</v>
       </c>
       <c r="E51" s="28">
-        <v>2</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>159</v>
+        <v>3</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9411,19 +9395,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="28">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="28">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="E52" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9431,19 +9415,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D53" s="28">
+        <v>1000</v>
       </c>
       <c r="E53" s="28">
-        <v>2</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9451,19 +9435,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="28">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="28">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="E54" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9471,10 +9455,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="28">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9483,7 +9467,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9491,19 +9475,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="28">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9511,10 +9495,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="28">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9523,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9531,19 +9515,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E58" s="28">
         <v>2</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9551,10 +9535,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9563,7 +9547,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9571,19 +9555,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9591,10 +9575,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9603,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9611,19 +9595,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9631,10 +9615,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9643,7 +9627,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9651,19 +9635,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9671,10 +9655,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9683,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9691,19 +9675,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9711,10 +9695,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9723,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9731,19 +9715,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="28">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9751,10 +9735,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="28">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9763,7 +9747,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9771,19 +9755,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="28">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9791,10 +9775,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="28">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9803,87 +9787,87 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="38" customFormat="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="28">
-        <v>49</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="28">
-        <v>2</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="B72" s="37">
+        <v>51</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="37">
+        <v>5000</v>
+      </c>
+      <c r="E72" s="37">
+        <v>3</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="38" customFormat="1">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="28">
-        <v>49</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73" s="28">
-        <v>1000</v>
-      </c>
-      <c r="E73" s="28">
+      <c r="B73" s="37">
+        <v>52</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="37">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="37">
         <v>3</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="38" customFormat="1">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="28">
-        <v>50</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="28">
-        <v>2</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="B74" s="37">
+        <v>53</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="37">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="37">
+        <v>3</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="38" customFormat="1">
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="28">
-        <v>50</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="28">
-        <v>1000</v>
-      </c>
-      <c r="E75" s="28">
-        <v>3</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>192</v>
+      <c r="B75" s="37">
+        <v>54</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="37">
+        <v>2</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1">
@@ -9891,19 +9875,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="37">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D76" s="37">
+        <v>5000</v>
       </c>
       <c r="E76" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9911,19 +9895,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="37">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="37">
-        <v>5000</v>
+        <v>33</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>202</v>
       </c>
       <c r="E77" s="37">
-        <v>3</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1">
@@ -9931,19 +9915,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="37">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D78" s="37">
+        <v>5000</v>
       </c>
       <c r="E78" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -9951,19 +9935,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="37">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="37">
-        <v>5000</v>
+        <v>33</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>203</v>
       </c>
       <c r="E79" s="37">
-        <v>3</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
@@ -9971,10 +9955,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="37">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -9983,7 +9967,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -9991,19 +9975,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
       </c>
-      <c r="F81" s="19" t="s">
-        <v>175</v>
+      <c r="F81" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
@@ -10011,10 +9995,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10023,7 +10007,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10031,19 +10015,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="37">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
       </c>
-      <c r="F83" s="23" t="s">
-        <v>176</v>
+      <c r="F83" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="38" customFormat="1">
@@ -10051,10 +10035,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="37">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10063,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10071,19 +10055,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="37">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
       </c>
-      <c r="F85" s="23" t="s">
-        <v>177</v>
+      <c r="F85" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="38" customFormat="1">
@@ -10091,10 +10075,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="37">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10103,7 +10087,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10111,19 +10095,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="37">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
@@ -10131,10 +10115,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="37">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10143,7 +10127,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10151,19 +10135,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="37">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="E89" s="37">
         <v>2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
@@ -10171,10 +10155,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="37">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10183,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10191,19 +10175,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="37">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="E91" s="37">
         <v>2</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
@@ -10211,10 +10195,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="37">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10223,7 +10207,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10231,19 +10215,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="37">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>199</v>
+        <v>33</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
@@ -10251,10 +10235,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="37">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10263,127 +10247,127 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="38" customFormat="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="37">
-        <v>61</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" s="37">
-        <v>2</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="38" customFormat="1">
+      <c r="B95" s="28">
+        <v>64</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E95" s="28">
+        <v>3</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="37">
-        <v>61</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E96" s="37">
-        <v>3</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="38" customFormat="1">
+      <c r="B96" s="28">
+        <v>65</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="28">
+        <v>2</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="37">
-        <v>62</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E97" s="37">
-        <v>2</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="38" customFormat="1">
+      <c r="B97" s="28">
+        <v>65</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E97" s="28">
+        <v>3</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="37">
-        <v>62</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E98" s="37">
-        <v>3</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="38" customFormat="1">
+      <c r="B98" s="28">
+        <v>66</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="28">
+        <v>2</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="37">
-        <v>63</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" s="37">
-        <v>2</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="38" customFormat="1">
+      <c r="B99" s="28">
+        <v>66</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E99" s="28">
+        <v>3</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="37">
-        <v>63</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E100" s="37">
-        <v>3</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>192</v>
+      <c r="B100" s="28">
+        <v>67</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="28">
+        <v>2</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10391,19 +10375,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="28">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="D101" s="28">
+        <v>10000</v>
       </c>
       <c r="E101" s="28">
-        <v>2</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10411,10 +10395,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="28">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10423,7 +10407,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10431,19 +10415,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="28">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>208</v>
+        <v>33</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10451,10 +10435,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="28">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10463,147 +10447,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="6">
-        <v>104</v>
-      </c>
-      <c r="B105" s="28">
-        <v>66</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" s="28">
-        <v>2</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="6">
-        <v>105</v>
-      </c>
-      <c r="B106" s="28">
-        <v>66</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D106" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E106" s="28">
-        <v>3</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="6">
-        <v>106</v>
-      </c>
-      <c r="B107" s="28">
-        <v>67</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E107" s="28">
-        <v>2</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="6">
-        <v>107</v>
-      </c>
-      <c r="B108" s="28">
-        <v>67</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E108" s="28">
-        <v>3</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="6">
-        <v>108</v>
-      </c>
-      <c r="B109" s="28">
-        <v>68</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E109" s="28">
-        <v>3</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="6">
-        <v>109</v>
-      </c>
-      <c r="B110" s="28">
-        <v>69</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" s="28">
-        <v>2</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="6">
-        <v>110</v>
-      </c>
-      <c r="B111" s="28">
-        <v>69</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D111" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E111" s="28">
-        <v>3</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -10641,25 +10485,25 @@
         <v>25</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1">
@@ -10670,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10679,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1">
@@ -10690,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -10707,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -10725,7 +10569,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10783,7 +10627,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10841,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10899,7 +10743,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10957,7 +10801,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -11015,7 +10859,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -11073,7 +10917,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -11131,7 +10975,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11547,7 +11391,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11605,7 +11449,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11663,7 +11507,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11721,7 +11565,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11779,7 +11623,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11837,7 +11681,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>
@@ -11895,7 +11739,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="6">
         <v>2000</v>
@@ -14895,82 +14739,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4843,8 +4843,8 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7050,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8356,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9521,10 +9521,10 @@
         <v>33</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="E58" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>161</v>
@@ -10453,7 +10453,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -21,13 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">condition!$A$1:$F$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="218">
   <si>
     <t>id|任务id</t>
   </si>
@@ -500,13 +501,6 @@
       </rPr>
       <t>6,</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,34,35,36,21,</t>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,34,35,36,21,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -962,6 +956,17 @@
   </si>
   <si>
     <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,6 +1257,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2546,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="19" t="s">
@@ -2583,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
@@ -2620,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
@@ -2657,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
@@ -2694,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
@@ -2731,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
@@ -2768,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="19" t="s">
@@ -2805,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="19" t="s">
@@ -2842,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="19" t="s">
@@ -2879,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
@@ -2916,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="19" t="s">
@@ -2953,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="19" t="s">
@@ -2990,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="19" t="s">
@@ -3027,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="19" t="s">
@@ -3064,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="19" t="s">
@@ -3101,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="19" t="s">
@@ -3138,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
@@ -3175,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
@@ -3212,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
@@ -3249,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
@@ -3286,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
@@ -3323,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19" t="s">
@@ -3360,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19" t="s">
@@ -3397,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19" t="s">
@@ -3434,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19" t="s">
@@ -3471,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
@@ -3508,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
@@ -3545,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
@@ -3582,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
@@ -3619,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
@@ -3656,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="19" t="s">
@@ -3693,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="19" t="s">
@@ -3730,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>97</v>
@@ -3765,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>97</v>
@@ -3800,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>97</v>
@@ -3835,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>97</v>
@@ -3870,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>97</v>
@@ -3905,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>97</v>
@@ -3940,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>97</v>
@@ -3975,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>110</v>
@@ -4010,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>110</v>
@@ -4045,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>110</v>
@@ -4080,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>110</v>
@@ -4115,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>110</v>
@@ -4150,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>110</v>
@@ -5532,7 +5540,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1">
@@ -5556,7 +5564,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1">
@@ -5580,7 +5588,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1">
@@ -5604,7 +5612,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1">
@@ -5628,7 +5636,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1">
@@ -5652,7 +5660,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5676,7 +5684,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1">
@@ -5700,7 +5708,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="27" customFormat="1">
@@ -5724,7 +5732,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="27" customFormat="1">
@@ -5748,7 +5756,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1">
@@ -5772,7 +5780,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1">
@@ -5796,7 +5804,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1">
@@ -5820,7 +5828,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1">
@@ -5844,7 +5852,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1">
@@ -5868,7 +5876,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1">
@@ -5892,7 +5900,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1">
@@ -5916,7 +5924,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1">
@@ -5940,7 +5948,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1">
@@ -5964,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1">
@@ -5988,7 +5996,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1">
@@ -6012,7 +6020,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="27" customFormat="1">
@@ -6036,7 +6044,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="27" customFormat="1">
@@ -6060,7 +6068,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="27" customFormat="1">
@@ -6084,7 +6092,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="27" customFormat="1">
@@ -6108,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="27" customFormat="1">
@@ -6132,7 +6140,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="27" customFormat="1">
@@ -6156,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="27" customFormat="1">
@@ -6180,7 +6188,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="27" customFormat="1">
@@ -6204,7 +6212,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="27" customFormat="1">
@@ -6228,7 +6236,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="16" customFormat="1">
@@ -6243,7 +6251,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6252,7 +6260,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1">
@@ -6267,7 +6275,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6276,7 +6284,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6300,7 +6308,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6324,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6348,7 +6356,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6372,7 +6380,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6396,7 +6404,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6420,7 +6428,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6444,7 +6452,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6468,7 +6476,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6492,7 +6500,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6516,7 +6524,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6540,7 +6548,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6564,7 +6572,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6588,7 +6596,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7051,7 +7059,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:D47"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7110,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7141,7 +7149,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -7158,7 +7166,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7329,7 +7337,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
@@ -7514,7 +7522,7 @@
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7550,7 +7558,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7561,14 +7569,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7586,7 +7594,7 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7604,7 +7612,7 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7622,7 +7630,7 @@
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7640,7 +7648,7 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7658,7 +7666,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7676,7 +7684,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7694,7 +7702,7 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7712,7 +7720,7 @@
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7730,7 +7738,7 @@
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7748,7 +7756,7 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7766,7 +7774,7 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7784,7 +7792,7 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7794,15 +7802,15 @@
       <c r="B42" s="28">
         <v>41</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>215</v>
+      <c r="C42" s="47" t="s">
+        <v>213</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7820,7 +7828,7 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7838,7 +7846,7 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7856,7 +7864,7 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7874,7 +7882,7 @@
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7892,7 +7900,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7910,7 +7918,7 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7928,7 +7936,7 @@
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7946,7 +7954,7 @@
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7964,7 +7972,7 @@
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7982,7 +7990,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8000,7 +8008,7 @@
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8018,7 +8026,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8029,14 +8037,14 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8054,7 +8062,7 @@
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8072,7 +8080,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8090,7 +8098,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8108,7 +8116,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8126,7 +8134,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8144,7 +8152,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8162,7 +8170,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8180,7 +8188,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8198,7 +8206,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8216,7 +8224,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8234,7 +8242,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8252,7 +8260,7 @@
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8270,7 +8278,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8288,7 +8296,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8306,7 +8314,7 @@
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8324,7 +8332,7 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8342,7 +8350,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -8356,8 +8364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8601,13 +8609,13 @@
         <v>114</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8621,7 +8629,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8681,7 +8689,7 @@
         <v>114</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="28">
         <v>2</v>
@@ -8701,7 +8709,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
@@ -8721,7 +8729,7 @@
         <v>114</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -8741,7 +8749,7 @@
         <v>114</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="28">
         <v>2</v>
@@ -8761,7 +8769,7 @@
         <v>114</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
@@ -8841,13 +8849,13 @@
         <v>114</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8861,7 +8869,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
@@ -8878,7 +8886,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D26" s="34">
         <v>500</v>
@@ -8887,7 +8895,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="35" customFormat="1">
@@ -8898,7 +8906,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8907,7 +8915,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -8918,7 +8926,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D28" s="34">
         <v>500</v>
@@ -8927,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="35" customFormat="1">
@@ -8941,7 +8949,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E29" s="34">
         <v>2</v>
@@ -8958,7 +8966,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -8967,7 +8975,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -8981,7 +8989,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" s="34">
         <v>2</v>
@@ -8998,7 +9006,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9007,7 +9015,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9021,7 +9029,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E33" s="34">
         <v>3</v>
@@ -9038,7 +9046,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9047,7 +9055,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9061,7 +9069,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E35" s="34">
         <v>3</v>
@@ -9078,7 +9086,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9087,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9101,7 +9109,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E37" s="34">
         <v>2</v>
@@ -9118,7 +9126,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9127,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9141,7 +9149,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E39" s="34">
         <v>2</v>
@@ -9158,7 +9166,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9167,7 +9175,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9198,7 +9206,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9207,7 +9215,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9221,7 +9229,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
@@ -9238,7 +9246,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9247,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9261,7 +9269,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
@@ -9278,7 +9286,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9287,7 +9295,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9301,13 +9309,13 @@
         <v>33</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="35" customFormat="1">
@@ -9318,7 +9326,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9327,7 +9335,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9338,7 +9346,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" s="28">
         <v>1000</v>
@@ -9347,7 +9355,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9357,8 +9365,8 @@
       <c r="B50" s="28">
         <v>39</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>187</v>
+      <c r="C50" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="D50" s="28">
         <v>1000</v>
@@ -9367,7 +9375,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9378,7 +9386,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51" s="28">
         <v>1000</v>
@@ -9387,7 +9395,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9401,13 +9409,13 @@
         <v>33</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E52" s="28">
         <v>2</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9418,7 +9426,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D53" s="28">
         <v>1000</v>
@@ -9427,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9441,13 +9449,13 @@
         <v>33</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="28">
         <v>2</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9458,7 +9466,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9467,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9481,13 +9489,13 @@
         <v>33</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9498,7 +9506,7 @@
         <v>43</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9507,7 +9515,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9521,13 +9529,13 @@
         <v>33</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" s="28">
         <v>3</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9538,7 +9546,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9547,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9561,13 +9569,13 @@
         <v>33</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9578,7 +9586,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9587,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9601,13 +9609,13 @@
         <v>33</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9618,7 +9626,7 @@
         <v>46</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9627,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9641,13 +9649,13 @@
         <v>33</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9658,7 +9666,7 @@
         <v>47</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9667,7 +9675,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9681,13 +9689,13 @@
         <v>33</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9698,7 +9706,7 @@
         <v>48</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9707,7 +9715,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9721,13 +9729,13 @@
         <v>33</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9738,7 +9746,7 @@
         <v>49</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9747,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9761,13 +9769,13 @@
         <v>33</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9778,7 +9786,7 @@
         <v>50</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9787,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1">
@@ -9798,7 +9806,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D72" s="37">
         <v>5000</v>
@@ -9807,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="38" customFormat="1">
@@ -9818,7 +9826,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" s="37">
         <v>5000</v>
@@ -9827,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="38" customFormat="1">
@@ -9838,7 +9846,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D74" s="37">
         <v>5000</v>
@@ -9847,7 +9855,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="38" customFormat="1">
@@ -9861,13 +9869,13 @@
         <v>33</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E75" s="37">
         <v>2</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1">
@@ -9878,7 +9886,7 @@
         <v>54</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D76" s="37">
         <v>5000</v>
@@ -9887,7 +9895,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9901,13 +9909,13 @@
         <v>33</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E77" s="37">
         <v>2</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1">
@@ -9918,7 +9926,7 @@
         <v>55</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D78" s="37">
         <v>5000</v>
@@ -9927,7 +9935,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -9941,13 +9949,13 @@
         <v>33</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79" s="37">
         <v>2</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
@@ -9958,7 +9966,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -9967,7 +9975,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -9981,13 +9989,13 @@
         <v>33</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
@@ -9998,7 +10006,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10007,7 +10015,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10021,13 +10029,13 @@
         <v>33</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="38" customFormat="1">
@@ -10038,7 +10046,7 @@
         <v>58</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10047,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10061,13 +10069,13 @@
         <v>33</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="38" customFormat="1">
@@ -10078,7 +10086,7 @@
         <v>59</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10087,7 +10095,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10101,13 +10109,13 @@
         <v>33</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
@@ -10118,7 +10126,7 @@
         <v>60</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10127,7 +10135,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10141,13 +10149,13 @@
         <v>33</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E89" s="37">
         <v>2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
@@ -10158,7 +10166,7 @@
         <v>61</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10167,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10181,13 +10189,13 @@
         <v>33</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E91" s="37">
         <v>2</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
@@ -10198,7 +10206,7 @@
         <v>62</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10207,7 +10215,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10221,13 +10229,13 @@
         <v>33</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
@@ -10238,7 +10246,7 @@
         <v>63</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10247,7 +10255,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10258,7 +10266,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D95" s="28">
         <v>10000</v>
@@ -10267,7 +10275,7 @@
         <v>3</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10281,13 +10289,13 @@
         <v>33</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E96" s="28">
         <v>2</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10298,7 +10306,7 @@
         <v>65</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D97" s="28">
         <v>10000</v>
@@ -10307,7 +10315,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10321,13 +10329,13 @@
         <v>33</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E98" s="28">
         <v>2</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10338,7 +10346,7 @@
         <v>66</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D99" s="28">
         <v>10000</v>
@@ -10347,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10361,13 +10369,13 @@
         <v>33</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E100" s="28">
         <v>2</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10378,7 +10386,7 @@
         <v>67</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D101" s="28">
         <v>10000</v>
@@ -10387,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10398,7 +10406,7 @@
         <v>68</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10407,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10421,13 +10429,13 @@
         <v>33</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10438,7 +10446,7 @@
         <v>69</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10447,10 +10455,11 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F104"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10514,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10569,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10627,7 +10636,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10685,7 +10694,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10743,7 +10752,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10801,7 +10810,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -10859,7 +10868,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -10917,7 +10926,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -10975,7 +10984,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11391,7 +11400,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11449,7 +11458,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11507,7 +11516,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11565,7 +11574,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11623,7 +11632,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11681,7 +11690,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -4850,9 +4850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47:F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6419,7 +6419,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F65" s="23">
         <v>64</v>
@@ -8364,8 +8364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -823,23 +823,6 @@
   </si>
   <si>
     <t>16,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -903,70 +886,74 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>23,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,40,41,43,46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27,</t>
+  </si>
+  <si>
+    <t>22,23,25,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+  </si>
+  <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>18,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>23,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,40,41,43,46,47,48,49,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,22,23,24,25,26,27,</t>
-  </si>
-  <si>
-    <t>22,23,25,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
-  </si>
-  <si>
-    <t>use_fish_3d_bullet_item</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_fish_3d_bullet_item</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_3d_spend_num</t>
-  </si>
-  <si>
-    <t>buyu_3d_spend_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
+    <t>26,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3878,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>97</v>
@@ -3913,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>97</v>
@@ -3948,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>97</v>
@@ -4850,9 +4837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6251,7 +6238,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6275,7 +6262,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6452,7 +6439,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6596,7 +6583,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7058,8 +7045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7118,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7149,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -7166,7 +7153,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7337,7 +7324,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
@@ -7569,7 +7556,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
@@ -7803,7 +7790,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
@@ -8037,7 +8024,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
@@ -8350,7 +8337,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8364,8 +8351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8629,7 +8616,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8869,7 +8856,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
@@ -9229,7 +9216,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
@@ -9269,7 +9256,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
@@ -9309,7 +9296,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
@@ -9366,7 +9353,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D50" s="28">
         <v>1000</v>
@@ -9569,7 +9556,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
@@ -9609,7 +9596,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
@@ -9649,7 +9636,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
@@ -9689,7 +9676,7 @@
         <v>33</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
@@ -9769,7 +9756,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
@@ -9869,7 +9856,7 @@
         <v>33</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" s="37">
         <v>2</v>
@@ -9909,7 +9896,7 @@
         <v>33</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E77" s="37">
         <v>2</v>
@@ -9949,7 +9936,7 @@
         <v>33</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E79" s="37">
         <v>2</v>
@@ -9989,7 +9976,7 @@
         <v>33</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
@@ -10029,7 +10016,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
@@ -10069,7 +10056,7 @@
         <v>33</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
@@ -10109,7 +10096,7 @@
         <v>33</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
@@ -10229,7 +10216,7 @@
         <v>33</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
@@ -10289,7 +10276,7 @@
         <v>33</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E96" s="28">
         <v>2</v>
@@ -10369,7 +10356,7 @@
         <v>33</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E100" s="28">
         <v>2</v>
@@ -10429,13 +10416,13 @@
         <v>33</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10523,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10578,7 +10565,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10636,7 +10623,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10694,7 +10681,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10752,7 +10739,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10810,7 +10797,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -10868,7 +10855,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -10926,7 +10913,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -10984,7 +10971,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11400,7 +11387,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11458,7 +11445,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11516,7 +11503,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11574,7 +11561,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11632,7 +11619,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11690,7 +11677,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="222">
   <si>
     <t>id|任务id</t>
   </si>
@@ -798,9 +798,6 @@
   </si>
   <si>
     <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
   </si>
   <si>
     <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
@@ -954,6 +951,26 @@
   </si>
   <si>
     <t>26,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15018,7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_task_progress "106846",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>,100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼5条（5000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1248,6 +1265,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1526,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3865,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>97</v>
@@ -3900,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>97</v>
@@ -3935,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>97</v>
@@ -4005,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>110</v>
@@ -4144,8 +4162,8 @@
       <c r="B72" s="21">
         <v>1</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>183</v>
+      <c r="C72" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>110</v>
@@ -4837,9 +4855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6238,7 +6256,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6262,7 +6280,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6390,8 +6408,8 @@
       <c r="G64" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>176</v>
+      <c r="H64" s="42" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6439,7 +6457,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6487,7 +6505,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6583,7 +6601,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7045,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F67" sqref="A67:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7105,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7136,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -7153,7 +7171,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7324,7 +7342,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
@@ -7556,7 +7574,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
@@ -7790,7 +7808,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
@@ -8024,7 +8042,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
@@ -8265,7 +8283,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8337,7 +8355,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8351,8 +8369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8616,7 +8634,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8856,7 +8874,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
@@ -8873,7 +8891,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" s="34">
         <v>500</v>
@@ -8882,7 +8900,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="35" customFormat="1">
@@ -8893,7 +8911,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8902,7 +8920,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -8913,7 +8931,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="34">
         <v>500</v>
@@ -8922,7 +8940,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="35" customFormat="1">
@@ -8953,7 +8971,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -8962,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -8993,7 +9011,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9002,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9033,7 +9051,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9042,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9073,7 +9091,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9082,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9113,7 +9131,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9122,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9153,7 +9171,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9162,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9193,7 +9211,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9202,7 +9220,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9216,7 +9234,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
@@ -9233,7 +9251,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9242,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9256,7 +9274,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
@@ -9273,7 +9291,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9282,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9296,7 +9314,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
@@ -9313,7 +9331,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9322,7 +9340,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9333,7 +9351,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="28">
         <v>1000</v>
@@ -9342,7 +9360,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9353,7 +9371,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="28">
         <v>1000</v>
@@ -9362,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9373,7 +9391,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51" s="28">
         <v>1000</v>
@@ -9382,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9396,7 +9414,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52" s="28">
         <v>2</v>
@@ -9413,7 +9431,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="28">
         <v>1000</v>
@@ -9422,7 +9440,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9436,7 +9454,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E54" s="28">
         <v>2</v>
@@ -9453,7 +9471,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9462,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9476,7 +9494,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
@@ -9493,7 +9511,7 @@
         <v>43</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9502,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9533,7 +9551,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9542,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9556,7 +9574,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
@@ -9573,7 +9591,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9582,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9596,7 +9614,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
@@ -9613,7 +9631,7 @@
         <v>46</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9622,7 +9640,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9636,7 +9654,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
@@ -9653,7 +9671,7 @@
         <v>47</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9662,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9676,7 +9694,7 @@
         <v>33</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
@@ -9693,7 +9711,7 @@
         <v>48</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9702,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9733,7 +9751,7 @@
         <v>49</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9742,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9756,7 +9774,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
@@ -9773,7 +9791,7 @@
         <v>50</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9782,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1">
@@ -9793,7 +9811,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="37">
         <v>5000</v>
@@ -9802,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="38" customFormat="1">
@@ -9813,7 +9831,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D73" s="37">
         <v>5000</v>
@@ -9822,7 +9840,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="38" customFormat="1">
@@ -9833,7 +9851,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" s="37">
         <v>5000</v>
@@ -9842,7 +9860,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="38" customFormat="1">
@@ -9856,7 +9874,7 @@
         <v>33</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E75" s="37">
         <v>2</v>
@@ -9873,7 +9891,7 @@
         <v>54</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" s="37">
         <v>5000</v>
@@ -9882,7 +9900,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9896,7 +9914,7 @@
         <v>33</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E77" s="37">
         <v>2</v>
@@ -9913,7 +9931,7 @@
         <v>55</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D78" s="37">
         <v>5000</v>
@@ -9922,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -9936,7 +9954,7 @@
         <v>33</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E79" s="37">
         <v>2</v>
@@ -9953,7 +9971,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -9962,7 +9980,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -9976,7 +9994,7 @@
         <v>33</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
@@ -9993,7 +10011,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10002,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10016,7 +10034,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
@@ -10033,7 +10051,7 @@
         <v>58</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10042,7 +10060,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10056,7 +10074,7 @@
         <v>33</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
@@ -10073,7 +10091,7 @@
         <v>59</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10082,7 +10100,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10096,7 +10114,7 @@
         <v>33</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
@@ -10113,7 +10131,7 @@
         <v>60</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10122,7 +10140,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10153,7 +10171,7 @@
         <v>61</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10162,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10193,7 +10211,7 @@
         <v>62</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10202,7 +10220,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10216,7 +10234,7 @@
         <v>33</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
@@ -10233,7 +10251,7 @@
         <v>63</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10242,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10253,7 +10271,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" s="28">
         <v>10000</v>
@@ -10262,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10276,13 +10294,13 @@
         <v>33</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E96" s="28">
         <v>2</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10293,7 +10311,7 @@
         <v>65</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D97" s="28">
         <v>10000</v>
@@ -10302,7 +10320,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10333,7 +10351,7 @@
         <v>66</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D99" s="28">
         <v>10000</v>
@@ -10342,7 +10360,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10356,7 +10374,7 @@
         <v>33</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E100" s="28">
         <v>2</v>
@@ -10373,7 +10391,7 @@
         <v>67</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" s="28">
         <v>10000</v>
@@ -10382,7 +10400,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10393,7 +10411,7 @@
         <v>68</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10402,7 +10420,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10416,13 +10434,13 @@
         <v>33</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10433,7 +10451,7 @@
         <v>69</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10442,7 +10460,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -10510,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10565,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10623,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10681,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10739,7 +10757,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10797,7 +10815,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -10855,7 +10873,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -10913,7 +10931,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -10971,7 +10989,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11387,7 +11405,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11445,7 +11463,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11503,7 +11521,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11561,7 +11579,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11619,7 +11637,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11677,7 +11695,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>
@@ -14721,19 +14739,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
+    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -14741,15 +14761,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>15001</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE($F$2,C2,$F$4)</f>
+        <v>add_task_progress "106846",15001,100000000</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -14757,15 +14787,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="F4" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -14773,7 +14806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -14781,7 +14814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -14789,7 +14822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -14797,15 +14830,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="E9">
+        <v>106846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -14813,23 +14849,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="11" spans="1:6">
+      <c r="D11" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
     </row>

--- a/config_debug/task_ocean_explore_week_server.xlsx
+++ b/config_debug/task_ocean_explore_week_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -966,11 +966,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <t>捕获boss鱼5条（5000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕获boss鱼5条（5000倍炮以上）</t>
+    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>110</v>
@@ -4855,9 +4855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6409,7 +6409,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6601,7 +6601,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:8">
